--- a/Code/Results/Cases/Case_4_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_156/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9712769881528659</v>
+        <v>1.022019712320756</v>
       </c>
       <c r="D2">
-        <v>0.9957467572870371</v>
+        <v>1.026044126995927</v>
       </c>
       <c r="E2">
-        <v>0.9796604657620528</v>
+        <v>1.025640728492428</v>
       </c>
       <c r="F2">
-        <v>0.946540265055773</v>
+        <v>1.020460602463755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034360051265055</v>
+        <v>1.02829654538974</v>
       </c>
       <c r="J2">
-        <v>0.9943521049640739</v>
+        <v>1.027207903667633</v>
       </c>
       <c r="K2">
-        <v>1.00726566630359</v>
+        <v>1.02886792516688</v>
       </c>
       <c r="L2">
-        <v>0.9914106287166001</v>
+        <v>1.028465706534977</v>
       </c>
       <c r="M2">
-        <v>0.9587982840407558</v>
+        <v>1.023300821707284</v>
       </c>
       <c r="N2">
-        <v>1.001284241657623</v>
+        <v>1.012991519222763</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9793084162106396</v>
+        <v>1.023525159687274</v>
       </c>
       <c r="D3">
-        <v>1.001603755364157</v>
+        <v>1.027135790720846</v>
       </c>
       <c r="E3">
-        <v>0.9871289702443741</v>
+        <v>1.027094346827127</v>
       </c>
       <c r="F3">
-        <v>0.9575933877571294</v>
+        <v>1.022613375645724</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036824468660893</v>
+        <v>1.028632487468846</v>
       </c>
       <c r="J3">
-        <v>1.000379501113977</v>
+        <v>1.028348331590699</v>
       </c>
       <c r="K3">
-        <v>1.012216156886995</v>
+        <v>1.029766249445237</v>
       </c>
       <c r="L3">
-        <v>0.9979292311026774</v>
+        <v>1.029724917874062</v>
       </c>
       <c r="M3">
-        <v>0.9687992500063379</v>
+        <v>1.025256149313745</v>
       </c>
       <c r="N3">
-        <v>1.003385876967078</v>
+        <v>1.013380779767709</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9843175851046621</v>
+        <v>1.024496528411916</v>
       </c>
       <c r="D4">
-        <v>1.005258095274605</v>
+        <v>1.027839584577629</v>
       </c>
       <c r="E4">
-        <v>0.9917928378281722</v>
+        <v>1.02803258601876</v>
       </c>
       <c r="F4">
-        <v>0.9644714711120992</v>
+        <v>1.024003013151366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03834315740706</v>
+        <v>1.028846947251065</v>
       </c>
       <c r="J4">
-        <v>1.004131137580613</v>
+        <v>1.029083191217741</v>
       </c>
       <c r="K4">
-        <v>1.015293471271559</v>
+        <v>1.030344362821838</v>
       </c>
       <c r="L4">
-        <v>1.001991335838003</v>
+        <v>1.030536867888398</v>
       </c>
       <c r="M4">
-        <v>0.9750184900287808</v>
+        <v>1.026517700457992</v>
       </c>
       <c r="N4">
-        <v>1.00469292575616</v>
+        <v>1.013631308607835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9863815207793925</v>
+        <v>1.024904243914455</v>
       </c>
       <c r="D5">
-        <v>1.006763966006646</v>
+        <v>1.02813484805636</v>
       </c>
       <c r="E5">
-        <v>0.9937158153166612</v>
+        <v>1.028426470233213</v>
       </c>
       <c r="F5">
-        <v>0.9673024086735288</v>
+        <v>1.024586437448701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038964415213851</v>
+        <v>1.028936410949276</v>
       </c>
       <c r="J5">
-        <v>1.005675068663505</v>
+        <v>1.029391399812052</v>
       </c>
       <c r="K5">
-        <v>1.016558865971611</v>
+        <v>1.030586651720396</v>
       </c>
       <c r="L5">
-        <v>1.003664160413867</v>
+        <v>1.030877540812095</v>
       </c>
       <c r="M5">
-        <v>0.9775771945615631</v>
+        <v>1.027047197196588</v>
       </c>
       <c r="N5">
-        <v>1.005230536556756</v>
+        <v>1.013736311182931</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.986725688220332</v>
+        <v>1.024972663493331</v>
       </c>
       <c r="D6">
-        <v>1.007015079933637</v>
+        <v>1.028184388454548</v>
       </c>
       <c r="E6">
-        <v>0.9940365530241789</v>
+        <v>1.028492573095892</v>
       </c>
       <c r="F6">
-        <v>0.967774315793827</v>
+        <v>1.024684351915998</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039067745244487</v>
+        <v>1.028951391623156</v>
       </c>
       <c r="J6">
-        <v>1.005932413336918</v>
+        <v>1.029443107066613</v>
       </c>
       <c r="K6">
-        <v>1.016769721469587</v>
+        <v>1.0306272893202</v>
       </c>
       <c r="L6">
-        <v>1.003943055201286</v>
+        <v>1.030934702243235</v>
       </c>
       <c r="M6">
-        <v>0.9780036570026603</v>
+        <v>1.027136052236284</v>
       </c>
       <c r="N6">
-        <v>1.005320128684253</v>
+        <v>1.013753922917862</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9843453244800378</v>
+        <v>1.024501978855803</v>
       </c>
       <c r="D7">
-        <v>1.005278333772091</v>
+        <v>1.027843532294856</v>
       </c>
       <c r="E7">
-        <v>0.9918186775930405</v>
+        <v>1.028037851271183</v>
       </c>
       <c r="F7">
-        <v>0.9645095302238794</v>
+        <v>1.024010811926535</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038351525040913</v>
+        <v>1.028848145396564</v>
       </c>
       <c r="J7">
-        <v>1.004151895494193</v>
+        <v>1.029087312357342</v>
       </c>
       <c r="K7">
-        <v>1.015310488468411</v>
+        <v>1.030347603234929</v>
       </c>
       <c r="L7">
-        <v>1.002013822254928</v>
+        <v>1.030541422598974</v>
       </c>
       <c r="M7">
-        <v>0.9750528935389022</v>
+        <v>1.026524778967771</v>
       </c>
       <c r="N7">
-        <v>1.004700155020191</v>
+        <v>1.013632712909429</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9740320365511639</v>
+        <v>1.022529063278486</v>
       </c>
       <c r="D8">
-        <v>0.9977555148846688</v>
+        <v>1.026413599783025</v>
       </c>
       <c r="E8">
-        <v>0.9822211375042532</v>
+        <v>1.026132478557351</v>
       </c>
       <c r="F8">
-        <v>0.9503356601648558</v>
+        <v>1.021188849844538</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03520926745124</v>
+        <v>1.028410684549718</v>
       </c>
       <c r="J8">
-        <v>0.9964213006531074</v>
+        <v>1.027593958704788</v>
       </c>
       <c r="K8">
-        <v>1.008965975229144</v>
+        <v>1.029172177204973</v>
       </c>
       <c r="L8">
-        <v>0.9936474447767153</v>
+        <v>1.028891857793171</v>
       </c>
       <c r="M8">
-        <v>0.9622332161878052</v>
+        <v>1.023962407673111</v>
       </c>
       <c r="N8">
-        <v>1.002005939473605</v>
+        <v>1.013123352820663</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9542651324012547</v>
+        <v>1.019030882606891</v>
       </c>
       <c r="D9">
-        <v>0.9833564875831017</v>
+        <v>1.023873732546306</v>
       </c>
       <c r="E9">
-        <v>0.9638777188000137</v>
+        <v>1.022756488051373</v>
       </c>
       <c r="F9">
-        <v>0.9229990456334363</v>
+        <v>1.016189498674567</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029039612711495</v>
+        <v>1.027617335330784</v>
       </c>
       <c r="J9">
-        <v>0.9815431214371588</v>
+        <v>1.024938514177074</v>
       </c>
       <c r="K9">
-        <v>0.9967254920796544</v>
+        <v>1.027076381908699</v>
       </c>
       <c r="L9">
-        <v>0.9775853667145349</v>
+        <v>1.025962881862427</v>
       </c>
       <c r="M9">
-        <v>0.9374785216429656</v>
+        <v>1.019418084671903</v>
       </c>
       <c r="N9">
-        <v>0.9968133074941756</v>
+        <v>1.012215323088286</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9397573513144902</v>
+        <v>1.016683443684286</v>
       </c>
       <c r="D10">
-        <v>0.9728154392363343</v>
+        <v>1.022166462154113</v>
       </c>
       <c r="E10">
-        <v>0.9504565294752763</v>
+        <v>1.02049271317272</v>
       </c>
       <c r="F10">
-        <v>0.9027463459319884</v>
+        <v>1.012837202036167</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024416997964985</v>
+        <v>1.027073110687905</v>
       </c>
       <c r="J10">
-        <v>0.9705832576383315</v>
+        <v>1.023151505763754</v>
       </c>
       <c r="K10">
-        <v>0.9876935008761224</v>
+        <v>1.025662225530792</v>
       </c>
       <c r="L10">
-        <v>0.9657818825997586</v>
+        <v>1.02399464807015</v>
       </c>
       <c r="M10">
-        <v>0.9191255866623959</v>
+        <v>1.0163676525107</v>
       </c>
       <c r="N10">
-        <v>0.9929855308932575</v>
+        <v>1.011602728271609</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9330868256791217</v>
+        <v>1.015663172451184</v>
       </c>
       <c r="D11">
-        <v>0.9679788334704845</v>
+        <v>1.021423759675263</v>
       </c>
       <c r="E11">
-        <v>0.9442972548041969</v>
+        <v>1.019509208130236</v>
       </c>
       <c r="F11">
-        <v>0.8933677488168401</v>
+        <v>1.011380695831438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022270739330593</v>
+        <v>1.026833773690606</v>
       </c>
       <c r="J11">
-        <v>0.9655348786493795</v>
+        <v>1.022373612639091</v>
       </c>
       <c r="K11">
-        <v>0.9835309869686876</v>
+        <v>1.02504575445808</v>
       </c>
       <c r="L11">
-        <v>0.9603520757273806</v>
+        <v>1.023138542060665</v>
       </c>
       <c r="M11">
-        <v>0.9106258560383335</v>
+        <v>1.015041532804862</v>
       </c>
       <c r="N11">
-        <v>0.991222362583557</v>
+        <v>1.011335705115729</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9305429744063241</v>
+        <v>1.015283610317027</v>
       </c>
       <c r="D12">
-        <v>0.96613623285871</v>
+        <v>1.021147360090361</v>
       </c>
       <c r="E12">
-        <v>0.9419502889406522</v>
+        <v>1.019143384968987</v>
       </c>
       <c r="F12">
-        <v>0.8897787717696133</v>
+        <v>1.010838914387732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021449278495518</v>
+        <v>1.026744315636263</v>
       </c>
       <c r="J12">
-        <v>0.9636082981693489</v>
+        <v>1.022084039760167</v>
       </c>
       <c r="K12">
-        <v>0.9819422956510668</v>
+        <v>1.024816139834359</v>
       </c>
       <c r="L12">
-        <v>0.9582810527311723</v>
+        <v>1.022819955636848</v>
       </c>
       <c r="M12">
-        <v>0.9073733169524811</v>
+        <v>1.014548136679512</v>
       </c>
       <c r="N12">
-        <v>0.9905495590652872</v>
+        <v>1.011236251621996</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9310917727045809</v>
+        <v>1.015365054530683</v>
       </c>
       <c r="D13">
-        <v>0.9665336559385778</v>
+        <v>1.021206672733428</v>
       </c>
       <c r="E13">
-        <v>0.9424565228484069</v>
+        <v>1.019221878376515</v>
       </c>
       <c r="F13">
-        <v>0.8905536427837091</v>
+        <v>1.010955163653602</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021626627656741</v>
+        <v>1.026763529993957</v>
       </c>
       <c r="J13">
-        <v>0.964023989720177</v>
+        <v>1.022146182767681</v>
       </c>
       <c r="K13">
-        <v>0.9822850874459454</v>
+        <v>1.024865421597525</v>
       </c>
       <c r="L13">
-        <v>0.9587278588873773</v>
+        <v>1.022888320430688</v>
       </c>
       <c r="M13">
-        <v>0.9080755402061244</v>
+        <v>1.014654009173491</v>
       </c>
       <c r="N13">
-        <v>0.9906947235754444</v>
+        <v>1.011257596980033</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9328779493426298</v>
+        <v>1.015631809807815</v>
       </c>
       <c r="D14">
-        <v>0.9678274968901732</v>
+        <v>1.021400923201811</v>
       </c>
       <c r="E14">
-        <v>0.9441045049949156</v>
+        <v>1.019478979466256</v>
       </c>
       <c r="F14">
-        <v>0.8930733229787462</v>
+        <v>1.011335927883577</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02220334804756</v>
+        <v>1.026826390459727</v>
       </c>
       <c r="J14">
-        <v>0.9653767136775464</v>
+        <v>1.022349689349181</v>
       </c>
       <c r="K14">
-        <v>0.9834005640905094</v>
+        <v>1.025026787342462</v>
       </c>
       <c r="L14">
-        <v>0.9601820296528044</v>
+        <v>1.023112219726795</v>
       </c>
       <c r="M14">
-        <v>0.9103590263187157</v>
+        <v>1.015000765327182</v>
       </c>
       <c r="N14">
-        <v>0.9911671262871043</v>
+        <v>1.011327489773637</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9339694520196035</v>
+        <v>1.015796088178578</v>
       </c>
       <c r="D15">
-        <v>0.9686183983687795</v>
+        <v>1.021520537231043</v>
       </c>
       <c r="E15">
-        <v>0.9451118156814884</v>
+        <v>1.019637320530172</v>
       </c>
       <c r="F15">
-        <v>0.8946113553214017</v>
+        <v>1.011570426389133</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022555388112502</v>
+        <v>1.026865046850115</v>
       </c>
       <c r="J15">
-        <v>0.9662031650305372</v>
+        <v>1.02247499280258</v>
       </c>
       <c r="K15">
-        <v>0.9840820498242813</v>
+        <v>1.025126126374231</v>
       </c>
       <c r="L15">
-        <v>0.9610706083418642</v>
+        <v>1.023250092846084</v>
       </c>
       <c r="M15">
-        <v>0.9117529073460522</v>
+        <v>1.015214304309073</v>
       </c>
       <c r="N15">
-        <v>0.9914557526412558</v>
+        <v>1.011370517239277</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9401912386204465</v>
+        <v>1.016751074090923</v>
       </c>
       <c r="D16">
-        <v>0.9731302741393896</v>
+        <v>1.022215679518955</v>
       </c>
       <c r="E16">
-        <v>0.9508574150259055</v>
+        <v>1.020557915004054</v>
       </c>
       <c r="F16">
-        <v>0.903354825569208</v>
+        <v>1.01293375909658</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024556187078325</v>
+        <v>1.027088916724025</v>
       </c>
       <c r="J16">
-        <v>0.9709114461739066</v>
+        <v>1.023203044445659</v>
       </c>
       <c r="K16">
-        <v>0.9879640678253744</v>
+        <v>1.025703050860795</v>
       </c>
       <c r="L16">
-        <v>0.966135017770314</v>
+        <v>1.02405138287931</v>
       </c>
       <c r="M16">
-        <v>0.919677047186726</v>
+        <v>1.016455549657078</v>
       </c>
       <c r="N16">
-        <v>0.9931001572088409</v>
+        <v>1.011620412184869</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9439849616281011</v>
+        <v>1.017349079793266</v>
       </c>
       <c r="D17">
-        <v>0.9758842170510615</v>
+        <v>1.022650795405348</v>
       </c>
       <c r="E17">
-        <v>0.9543639052785157</v>
+        <v>1.021134493168594</v>
       </c>
       <c r="F17">
-        <v>0.9086674338497672</v>
+        <v>1.013787599507053</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02577088402247</v>
+        <v>1.027228355133294</v>
       </c>
       <c r="J17">
-        <v>0.973779965841604</v>
+        <v>1.023658624280745</v>
       </c>
       <c r="K17">
-        <v>0.9903287218384771</v>
+        <v>1.026063827753919</v>
       </c>
       <c r="L17">
-        <v>0.9692223871053066</v>
+        <v>1.024552972049033</v>
       </c>
       <c r="M17">
-        <v>0.9244917499842172</v>
+        <v>1.017232723197369</v>
       </c>
       <c r="N17">
-        <v>0.9941020506609344</v>
+        <v>1.011776689220401</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9461608805759295</v>
+        <v>1.01769751935318</v>
       </c>
       <c r="D18">
-        <v>0.9774646723902956</v>
+        <v>1.022904259578748</v>
       </c>
       <c r="E18">
-        <v>0.9563761516422812</v>
+        <v>1.021470486330652</v>
       </c>
       <c r="F18">
-        <v>0.9117084992611629</v>
+        <v>1.014285155482654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026465633984535</v>
+        <v>1.027309332015868</v>
       </c>
       <c r="J18">
-        <v>0.9754243746436105</v>
+        <v>1.023923960856973</v>
       </c>
       <c r="K18">
-        <v>0.9916840732771899</v>
+        <v>1.026273864747786</v>
       </c>
       <c r="L18">
-        <v>0.9709929163554334</v>
+        <v>1.024845170119115</v>
       </c>
       <c r="M18">
-        <v>0.9272477031073931</v>
+        <v>1.017685529369995</v>
       </c>
       <c r="N18">
-        <v>0.9946763919221001</v>
+        <v>1.011867672890107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9468967658738651</v>
+        <v>1.017816266427328</v>
       </c>
       <c r="D19">
-        <v>0.9779993194027902</v>
+        <v>1.022990628359056</v>
       </c>
       <c r="E19">
-        <v>0.9570568609744436</v>
+        <v>1.021584998270194</v>
       </c>
       <c r="F19">
-        <v>0.9127360125981023</v>
+        <v>1.014454729540458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026700260125884</v>
+        <v>1.027336882919136</v>
       </c>
       <c r="J19">
-        <v>0.9759803602060093</v>
+        <v>1.02401436705323</v>
       </c>
       <c r="K19">
-        <v>0.9921422868834598</v>
+        <v>1.026345414687328</v>
       </c>
       <c r="L19">
-        <v>0.9715916553783411</v>
+        <v>1.024944739656563</v>
       </c>
       <c r="M19">
-        <v>0.9281788597216727</v>
+        <v>1.017839839515723</v>
       </c>
       <c r="N19">
-        <v>0.9948705780369349</v>
+        <v>1.011898667240174</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9435817984979444</v>
+        <v>1.017284957513651</v>
       </c>
       <c r="D20">
-        <v>0.9755914553663951</v>
+        <v>1.022604145952323</v>
       </c>
       <c r="E20">
-        <v>0.9539911539964107</v>
+        <v>1.021072664480481</v>
       </c>
       <c r="F20">
-        <v>0.9081034989723733</v>
+        <v>1.013696039813315</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02564199865556</v>
+        <v>1.027213431479641</v>
       </c>
       <c r="J20">
-        <v>0.9734752136380984</v>
+        <v>1.023609785862365</v>
       </c>
       <c r="K20">
-        <v>0.9900775214692354</v>
+        <v>1.026025161046408</v>
       </c>
       <c r="L20">
-        <v>0.9688943149997854</v>
+        <v>1.024499194680789</v>
       </c>
       <c r="M20">
-        <v>0.9239806766929799</v>
+        <v>1.017149392354503</v>
       </c>
       <c r="N20">
-        <v>0.9939956093297015</v>
+        <v>1.011759939794268</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9323538601192658</v>
+        <v>1.015553273378513</v>
       </c>
       <c r="D21">
-        <v>0.9674478113798289</v>
+        <v>1.021343735900279</v>
       </c>
       <c r="E21">
-        <v>0.943620910011256</v>
+        <v>1.019403283669496</v>
       </c>
       <c r="F21">
-        <v>0.8923343746916217</v>
+        <v>1.011223823796312</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022034210260361</v>
+        <v>1.026807895046377</v>
       </c>
       <c r="J21">
-        <v>0.9649798422404473</v>
+        <v>1.022289779184572</v>
       </c>
       <c r="K21">
-        <v>0.983073301483652</v>
+        <v>1.024979286611739</v>
       </c>
       <c r="L21">
-        <v>0.9597553639851703</v>
+        <v>1.023046303367031</v>
       </c>
       <c r="M21">
-        <v>0.9096893414066963</v>
+        <v>1.014898677021519</v>
       </c>
       <c r="N21">
-        <v>0.9910285272574123</v>
+        <v>1.011306915551289</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9249067842552228</v>
+        <v>1.014461085519589</v>
       </c>
       <c r="D22">
-        <v>0.9620576601339277</v>
+        <v>1.020548213266932</v>
       </c>
       <c r="E22">
-        <v>0.9367540734296306</v>
+        <v>1.018350745658479</v>
       </c>
       <c r="F22">
-        <v>0.8818008839489579</v>
+        <v>1.009664973223068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019623934203483</v>
+        <v>1.026549689781825</v>
       </c>
       <c r="J22">
-        <v>0.9593372732039142</v>
+        <v>1.021456194982751</v>
       </c>
       <c r="K22">
-        <v>0.9784201913615673</v>
+        <v>1.024318055340386</v>
       </c>
       <c r="L22">
-        <v>0.953691944868767</v>
+        <v>1.022129390001735</v>
       </c>
       <c r="M22">
-        <v>0.9001438371563005</v>
+        <v>1.01347882763332</v>
       </c>
       <c r="N22">
-        <v>0.9890582209161835</v>
+        <v>1.011020521700969</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9288943814262434</v>
+        <v>1.01504040314074</v>
       </c>
       <c r="D23">
-        <v>0.9649426772534389</v>
+        <v>1.020970227452236</v>
       </c>
       <c r="E23">
-        <v>0.9404298546401938</v>
+        <v>1.018908998441379</v>
       </c>
       <c r="F23">
-        <v>0.8874490232882967</v>
+        <v>1.010491782598886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020916098519927</v>
+        <v>1.026686876692442</v>
       </c>
       <c r="J23">
-        <v>0.9623593629251931</v>
+        <v>1.021898443076818</v>
       </c>
       <c r="K23">
-        <v>0.9809123725805027</v>
+        <v>1.024668935431535</v>
       </c>
       <c r="L23">
-        <v>0.9569388024672058</v>
+        <v>1.022615791777561</v>
       </c>
       <c r="M23">
-        <v>0.905262032630606</v>
+        <v>1.01423197414625</v>
       </c>
       <c r="N23">
-        <v>0.9901134304666764</v>
+        <v>1.011172493657097</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9437640840102617</v>
+        <v>1.017313932745712</v>
       </c>
       <c r="D24">
-        <v>0.9757238213448087</v>
+        <v>1.022625225856664</v>
       </c>
       <c r="E24">
-        <v>0.954159685821994</v>
+        <v>1.021100603176889</v>
       </c>
       <c r="F24">
-        <v>0.9083584941287358</v>
+        <v>1.013737413163785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025700278749069</v>
+        <v>1.027220175933844</v>
       </c>
       <c r="J24">
-        <v>0.9736130064522648</v>
+        <v>1.023631855063169</v>
       </c>
       <c r="K24">
-        <v>0.9901911016465134</v>
+        <v>1.026042634097105</v>
       </c>
       <c r="L24">
-        <v>0.9690426497797333</v>
+        <v>1.024523495503113</v>
       </c>
       <c r="M24">
-        <v>0.924211769684492</v>
+        <v>1.01718704753832</v>
       </c>
       <c r="N24">
-        <v>0.9940437364840603</v>
+        <v>1.01176750866449</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9595883035066114</v>
+        <v>1.019937889769201</v>
       </c>
       <c r="D25">
-        <v>0.9872306032230981</v>
+        <v>1.024532785436878</v>
       </c>
       <c r="E25">
-        <v>0.9688110045621253</v>
+        <v>1.023631522979788</v>
       </c>
       <c r="F25">
-        <v>0.9303866993765474</v>
+        <v>1.017485262155884</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030717441133179</v>
+        <v>1.027825120977646</v>
       </c>
       <c r="J25">
-        <v>0.9855566533872624</v>
+        <v>1.025627911419862</v>
       </c>
       <c r="K25">
-        <v>1.000030435697969</v>
+        <v>1.027621150544848</v>
       </c>
       <c r="L25">
-        <v>0.9819135876971418</v>
+        <v>1.026722791892952</v>
       </c>
       <c r="M25">
-        <v>0.9441712056901312</v>
+        <v>1.020596484193257</v>
       </c>
       <c r="N25">
-        <v>0.9982147009003235</v>
+        <v>1.012451332055029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_156/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022019712320756</v>
+        <v>0.9712769881528651</v>
       </c>
       <c r="D2">
-        <v>1.026044126995927</v>
+        <v>0.9957467572870365</v>
       </c>
       <c r="E2">
-        <v>1.025640728492428</v>
+        <v>0.9796604657620517</v>
       </c>
       <c r="F2">
-        <v>1.020460602463755</v>
+        <v>0.9465402650557723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02829654538974</v>
+        <v>1.034360051265054</v>
       </c>
       <c r="J2">
-        <v>1.027207903667633</v>
+        <v>0.9943521049640731</v>
       </c>
       <c r="K2">
-        <v>1.02886792516688</v>
+        <v>1.007265666303589</v>
       </c>
       <c r="L2">
-        <v>1.028465706534977</v>
+        <v>0.9914106287165991</v>
       </c>
       <c r="M2">
-        <v>1.023300821707284</v>
+        <v>0.958798284040755</v>
       </c>
       <c r="N2">
-        <v>1.012991519222763</v>
+        <v>1.001284241657622</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023525159687274</v>
+        <v>0.979308416210638</v>
       </c>
       <c r="D3">
-        <v>1.027135790720846</v>
+        <v>1.001603755364155</v>
       </c>
       <c r="E3">
-        <v>1.027094346827127</v>
+        <v>0.9871289702443722</v>
       </c>
       <c r="F3">
-        <v>1.022613375645724</v>
+        <v>0.9575933877571272</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028632487468846</v>
+        <v>1.036824468660892</v>
       </c>
       <c r="J3">
-        <v>1.028348331590699</v>
+        <v>1.000379501113976</v>
       </c>
       <c r="K3">
-        <v>1.029766249445237</v>
+        <v>1.012216156886993</v>
       </c>
       <c r="L3">
-        <v>1.029724917874062</v>
+        <v>0.9979292311026756</v>
       </c>
       <c r="M3">
-        <v>1.025256149313745</v>
+        <v>0.9687992500063358</v>
       </c>
       <c r="N3">
-        <v>1.013380779767709</v>
+        <v>1.003385876967077</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024496528411916</v>
+        <v>0.9843175851046608</v>
       </c>
       <c r="D4">
-        <v>1.027839584577629</v>
+        <v>1.005258095274604</v>
       </c>
       <c r="E4">
-        <v>1.02803258601876</v>
+        <v>0.9917928378281708</v>
       </c>
       <c r="F4">
-        <v>1.024003013151366</v>
+        <v>0.9644714711120977</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028846947251065</v>
+        <v>1.038343157407059</v>
       </c>
       <c r="J4">
-        <v>1.029083191217741</v>
+        <v>1.004131137580612</v>
       </c>
       <c r="K4">
-        <v>1.030344362821838</v>
+        <v>1.015293471271558</v>
       </c>
       <c r="L4">
-        <v>1.030536867888398</v>
+        <v>1.001991335838002</v>
       </c>
       <c r="M4">
-        <v>1.026517700457992</v>
+        <v>0.9750184900287794</v>
       </c>
       <c r="N4">
-        <v>1.013631308607835</v>
+        <v>1.00469292575616</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024904243914455</v>
+        <v>0.986381520779392</v>
       </c>
       <c r="D5">
-        <v>1.02813484805636</v>
+        <v>1.006763966006645</v>
       </c>
       <c r="E5">
-        <v>1.028426470233213</v>
+        <v>0.9937158153166608</v>
       </c>
       <c r="F5">
-        <v>1.024586437448701</v>
+        <v>0.9673024086735283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028936410949276</v>
+        <v>1.03896441521385</v>
       </c>
       <c r="J5">
-        <v>1.029391399812052</v>
+        <v>1.005675068663505</v>
       </c>
       <c r="K5">
-        <v>1.030586651720396</v>
+        <v>1.01655886597161</v>
       </c>
       <c r="L5">
-        <v>1.030877540812095</v>
+        <v>1.003664160413866</v>
       </c>
       <c r="M5">
-        <v>1.027047197196588</v>
+        <v>0.9775771945615627</v>
       </c>
       <c r="N5">
-        <v>1.013736311182931</v>
+        <v>1.005230536556756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024972663493331</v>
+        <v>0.9867256882203327</v>
       </c>
       <c r="D6">
-        <v>1.028184388454548</v>
+        <v>1.007015079933637</v>
       </c>
       <c r="E6">
-        <v>1.028492573095892</v>
+        <v>0.9940365530241797</v>
       </c>
       <c r="F6">
-        <v>1.024684351915998</v>
+        <v>0.9677743157938273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028951391623156</v>
+        <v>1.039067745244488</v>
       </c>
       <c r="J6">
-        <v>1.029443107066613</v>
+        <v>1.005932413336919</v>
       </c>
       <c r="K6">
-        <v>1.0306272893202</v>
+        <v>1.016769721469588</v>
       </c>
       <c r="L6">
-        <v>1.030934702243235</v>
+        <v>1.003943055201287</v>
       </c>
       <c r="M6">
-        <v>1.027136052236284</v>
+        <v>0.9780036570026607</v>
       </c>
       <c r="N6">
-        <v>1.013753922917862</v>
+        <v>1.005320128684253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024501978855803</v>
+        <v>0.9843453244800364</v>
       </c>
       <c r="D7">
-        <v>1.027843532294856</v>
+        <v>1.005278333772089</v>
       </c>
       <c r="E7">
-        <v>1.028037851271183</v>
+        <v>0.9918186775930393</v>
       </c>
       <c r="F7">
-        <v>1.024010811926535</v>
+        <v>0.9645095302238789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028848145396564</v>
+        <v>1.038351525040912</v>
       </c>
       <c r="J7">
-        <v>1.029087312357342</v>
+        <v>1.004151895494192</v>
       </c>
       <c r="K7">
-        <v>1.030347603234929</v>
+        <v>1.015310488468409</v>
       </c>
       <c r="L7">
-        <v>1.030541422598974</v>
+        <v>1.002013822254927</v>
       </c>
       <c r="M7">
-        <v>1.026524778967771</v>
+        <v>0.9750528935389013</v>
       </c>
       <c r="N7">
-        <v>1.013632712909429</v>
+        <v>1.004700155020191</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022529063278486</v>
+        <v>0.974032036551165</v>
       </c>
       <c r="D8">
-        <v>1.026413599783025</v>
+        <v>0.9977555148846698</v>
       </c>
       <c r="E8">
-        <v>1.026132478557351</v>
+        <v>0.9822211375042541</v>
       </c>
       <c r="F8">
-        <v>1.021188849844538</v>
+        <v>0.9503356601648574</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028410684549718</v>
+        <v>1.03520926745124</v>
       </c>
       <c r="J8">
-        <v>1.027593958704788</v>
+        <v>0.9964213006531084</v>
       </c>
       <c r="K8">
-        <v>1.029172177204973</v>
+        <v>1.008965975229145</v>
       </c>
       <c r="L8">
-        <v>1.028891857793171</v>
+        <v>0.9936474447767163</v>
       </c>
       <c r="M8">
-        <v>1.023962407673111</v>
+        <v>0.9622332161878066</v>
       </c>
       <c r="N8">
-        <v>1.013123352820663</v>
+        <v>1.002005939473605</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019030882606891</v>
+        <v>0.9542651324012542</v>
       </c>
       <c r="D9">
-        <v>1.023873732546306</v>
+        <v>0.9833564875831018</v>
       </c>
       <c r="E9">
-        <v>1.022756488051373</v>
+        <v>0.9638777188000131</v>
       </c>
       <c r="F9">
-        <v>1.016189498674567</v>
+        <v>0.9229990456334356</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027617335330784</v>
+        <v>1.029039612711495</v>
       </c>
       <c r="J9">
-        <v>1.024938514177074</v>
+        <v>0.9815431214371585</v>
       </c>
       <c r="K9">
-        <v>1.027076381908699</v>
+        <v>0.9967254920796544</v>
       </c>
       <c r="L9">
-        <v>1.025962881862427</v>
+        <v>0.9775853667145347</v>
       </c>
       <c r="M9">
-        <v>1.019418084671903</v>
+        <v>0.9374785216429649</v>
       </c>
       <c r="N9">
-        <v>1.012215323088286</v>
+        <v>0.9968133074941755</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016683443684286</v>
+        <v>0.9397573513144906</v>
       </c>
       <c r="D10">
-        <v>1.022166462154113</v>
+        <v>0.9728154392363347</v>
       </c>
       <c r="E10">
-        <v>1.02049271317272</v>
+        <v>0.9504565294752764</v>
       </c>
       <c r="F10">
-        <v>1.012837202036167</v>
+        <v>0.9027463459319885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027073110687905</v>
+        <v>1.024416997964986</v>
       </c>
       <c r="J10">
-        <v>1.023151505763754</v>
+        <v>0.9705832576383316</v>
       </c>
       <c r="K10">
-        <v>1.025662225530792</v>
+        <v>0.987693500876123</v>
       </c>
       <c r="L10">
-        <v>1.02399464807015</v>
+        <v>0.9657818825997587</v>
       </c>
       <c r="M10">
-        <v>1.0163676525107</v>
+        <v>0.9191255866623959</v>
       </c>
       <c r="N10">
-        <v>1.011602728271609</v>
+        <v>0.9929855308932575</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015663172451184</v>
+        <v>0.9330868256791202</v>
       </c>
       <c r="D11">
-        <v>1.021423759675263</v>
+        <v>0.967978833470483</v>
       </c>
       <c r="E11">
-        <v>1.019509208130236</v>
+        <v>0.9442972548041952</v>
       </c>
       <c r="F11">
-        <v>1.011380695831438</v>
+        <v>0.893367748816839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026833773690606</v>
+        <v>1.022270739330593</v>
       </c>
       <c r="J11">
-        <v>1.022373612639091</v>
+        <v>0.9655348786493781</v>
       </c>
       <c r="K11">
-        <v>1.02504575445808</v>
+        <v>0.9835309869686862</v>
       </c>
       <c r="L11">
-        <v>1.023138542060665</v>
+        <v>0.960352075727379</v>
       </c>
       <c r="M11">
-        <v>1.015041532804862</v>
+        <v>0.9106258560383325</v>
       </c>
       <c r="N11">
-        <v>1.011335705115729</v>
+        <v>0.9912223625835566</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015283610317027</v>
+        <v>0.9305429744063256</v>
       </c>
       <c r="D12">
-        <v>1.021147360090361</v>
+        <v>0.9661362328587113</v>
       </c>
       <c r="E12">
-        <v>1.019143384968987</v>
+        <v>0.9419502889406538</v>
       </c>
       <c r="F12">
-        <v>1.010838914387732</v>
+        <v>0.8897787717696156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026744315636263</v>
+        <v>1.021449278495519</v>
       </c>
       <c r="J12">
-        <v>1.022084039760167</v>
+        <v>0.9636082981693505</v>
       </c>
       <c r="K12">
-        <v>1.024816139834359</v>
+        <v>0.9819422956510681</v>
       </c>
       <c r="L12">
-        <v>1.022819955636848</v>
+        <v>0.9582810527311738</v>
       </c>
       <c r="M12">
-        <v>1.014548136679512</v>
+        <v>0.9073733169524831</v>
       </c>
       <c r="N12">
-        <v>1.011236251621996</v>
+        <v>0.9905495590652876</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015365054530683</v>
+        <v>0.9310917727045824</v>
       </c>
       <c r="D13">
-        <v>1.021206672733428</v>
+        <v>0.966533655938579</v>
       </c>
       <c r="E13">
-        <v>1.019221878376515</v>
+        <v>0.9424565228484084</v>
       </c>
       <c r="F13">
-        <v>1.010955163653602</v>
+        <v>0.8905536427837107</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026763529993957</v>
+        <v>1.021626627656742</v>
       </c>
       <c r="J13">
-        <v>1.022146182767681</v>
+        <v>0.9640239897201784</v>
       </c>
       <c r="K13">
-        <v>1.024865421597525</v>
+        <v>0.9822850874459466</v>
       </c>
       <c r="L13">
-        <v>1.022888320430688</v>
+        <v>0.9587278588873788</v>
       </c>
       <c r="M13">
-        <v>1.014654009173491</v>
+        <v>0.9080755402061261</v>
       </c>
       <c r="N13">
-        <v>1.011257596980033</v>
+        <v>0.990694723575445</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015631809807815</v>
+        <v>0.9328779493426312</v>
       </c>
       <c r="D14">
-        <v>1.021400923201811</v>
+        <v>0.9678274968901743</v>
       </c>
       <c r="E14">
-        <v>1.019478979466256</v>
+        <v>0.9441045049949168</v>
       </c>
       <c r="F14">
-        <v>1.011335927883577</v>
+        <v>0.8930733229787483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026826390459727</v>
+        <v>1.022203348047561</v>
       </c>
       <c r="J14">
-        <v>1.022349689349181</v>
+        <v>0.9653767136775478</v>
       </c>
       <c r="K14">
-        <v>1.025026787342462</v>
+        <v>0.9834005640905106</v>
       </c>
       <c r="L14">
-        <v>1.023112219726795</v>
+        <v>0.9601820296528056</v>
       </c>
       <c r="M14">
-        <v>1.015000765327182</v>
+        <v>0.9103590263187176</v>
       </c>
       <c r="N14">
-        <v>1.011327489773637</v>
+        <v>0.9911671262871049</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015796088178578</v>
+        <v>0.9339694520196028</v>
       </c>
       <c r="D15">
-        <v>1.021520537231043</v>
+        <v>0.9686183983687787</v>
       </c>
       <c r="E15">
-        <v>1.019637320530172</v>
+        <v>0.9451118156814878</v>
       </c>
       <c r="F15">
-        <v>1.011570426389133</v>
+        <v>0.8946113553214008</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026865046850115</v>
+        <v>1.022555388112501</v>
       </c>
       <c r="J15">
-        <v>1.02247499280258</v>
+        <v>0.9662031650305364</v>
       </c>
       <c r="K15">
-        <v>1.025126126374231</v>
+        <v>0.9840820498242805</v>
       </c>
       <c r="L15">
-        <v>1.023250092846084</v>
+        <v>0.9610706083418635</v>
       </c>
       <c r="M15">
-        <v>1.015214304309073</v>
+        <v>0.9117529073460514</v>
       </c>
       <c r="N15">
-        <v>1.011370517239277</v>
+        <v>0.9914557526412556</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016751074090923</v>
+        <v>0.9401912386204466</v>
       </c>
       <c r="D16">
-        <v>1.022215679518955</v>
+        <v>0.9731302741393896</v>
       </c>
       <c r="E16">
-        <v>1.020557915004054</v>
+        <v>0.9508574150259056</v>
       </c>
       <c r="F16">
-        <v>1.01293375909658</v>
+        <v>0.9033548255692083</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027088916724025</v>
+        <v>1.024556187078325</v>
       </c>
       <c r="J16">
-        <v>1.023203044445659</v>
+        <v>0.9709114461739067</v>
       </c>
       <c r="K16">
-        <v>1.025703050860795</v>
+        <v>0.9879640678253744</v>
       </c>
       <c r="L16">
-        <v>1.02405138287931</v>
+        <v>0.9661350177703141</v>
       </c>
       <c r="M16">
-        <v>1.016455549657078</v>
+        <v>0.9196770471867264</v>
       </c>
       <c r="N16">
-        <v>1.011620412184869</v>
+        <v>0.9931001572088409</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017349079793266</v>
+        <v>0.9439849616280999</v>
       </c>
       <c r="D17">
-        <v>1.022650795405348</v>
+        <v>0.9758842170510604</v>
       </c>
       <c r="E17">
-        <v>1.021134493168594</v>
+        <v>0.9543639052785147</v>
       </c>
       <c r="F17">
-        <v>1.013787599507053</v>
+        <v>0.9086674338497664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027228355133294</v>
+        <v>1.025770884022469</v>
       </c>
       <c r="J17">
-        <v>1.023658624280745</v>
+        <v>0.973779965841603</v>
       </c>
       <c r="K17">
-        <v>1.026063827753919</v>
+        <v>0.990328721838476</v>
       </c>
       <c r="L17">
-        <v>1.024552972049033</v>
+        <v>0.9692223871053054</v>
       </c>
       <c r="M17">
-        <v>1.017232723197369</v>
+        <v>0.9244917499842167</v>
       </c>
       <c r="N17">
-        <v>1.011776689220401</v>
+        <v>0.9941020506609342</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01769751935318</v>
+        <v>0.9461608805759292</v>
       </c>
       <c r="D18">
-        <v>1.022904259578748</v>
+        <v>0.9774646723902958</v>
       </c>
       <c r="E18">
-        <v>1.021470486330652</v>
+        <v>0.9563761516422812</v>
       </c>
       <c r="F18">
-        <v>1.014285155482654</v>
+        <v>0.911708499261163</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027309332015868</v>
+        <v>1.026465633984535</v>
       </c>
       <c r="J18">
-        <v>1.023923960856973</v>
+        <v>0.9754243746436103</v>
       </c>
       <c r="K18">
-        <v>1.026273864747786</v>
+        <v>0.9916840732771902</v>
       </c>
       <c r="L18">
-        <v>1.024845170119115</v>
+        <v>0.9709929163554334</v>
       </c>
       <c r="M18">
-        <v>1.017685529369995</v>
+        <v>0.9272477031073932</v>
       </c>
       <c r="N18">
-        <v>1.011867672890107</v>
+        <v>0.9946763919221001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017816266427328</v>
+        <v>0.9468967658738663</v>
       </c>
       <c r="D19">
-        <v>1.022990628359056</v>
+        <v>0.9779993194027914</v>
       </c>
       <c r="E19">
-        <v>1.021584998270194</v>
+        <v>0.9570568609744446</v>
       </c>
       <c r="F19">
-        <v>1.014454729540458</v>
+        <v>0.9127360125981037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027336882919136</v>
+        <v>1.026700260125885</v>
       </c>
       <c r="J19">
-        <v>1.02401436705323</v>
+        <v>0.9759803602060104</v>
       </c>
       <c r="K19">
-        <v>1.026345414687328</v>
+        <v>0.992142286883461</v>
       </c>
       <c r="L19">
-        <v>1.024944739656563</v>
+        <v>0.9715916553783422</v>
       </c>
       <c r="M19">
-        <v>1.017839839515723</v>
+        <v>0.928178859721674</v>
       </c>
       <c r="N19">
-        <v>1.011898667240174</v>
+        <v>0.9948705780369353</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017284957513651</v>
+        <v>0.943581798497943</v>
       </c>
       <c r="D20">
-        <v>1.022604145952323</v>
+        <v>0.9755914553663939</v>
       </c>
       <c r="E20">
-        <v>1.021072664480481</v>
+        <v>0.9539911539964094</v>
       </c>
       <c r="F20">
-        <v>1.013696039813315</v>
+        <v>0.9081034989723719</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027213431479641</v>
+        <v>1.025641998655559</v>
       </c>
       <c r="J20">
-        <v>1.023609785862365</v>
+        <v>0.9734752136380973</v>
       </c>
       <c r="K20">
-        <v>1.026025161046408</v>
+        <v>0.9900775214692341</v>
       </c>
       <c r="L20">
-        <v>1.024499194680789</v>
+        <v>0.968894314999784</v>
       </c>
       <c r="M20">
-        <v>1.017149392354503</v>
+        <v>0.9239806766929788</v>
       </c>
       <c r="N20">
-        <v>1.011759939794268</v>
+        <v>0.993995609329701</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015553273378513</v>
+        <v>0.9323538601192625</v>
       </c>
       <c r="D21">
-        <v>1.021343735900279</v>
+        <v>0.9674478113798265</v>
       </c>
       <c r="E21">
-        <v>1.019403283669496</v>
+        <v>0.9436209100112529</v>
       </c>
       <c r="F21">
-        <v>1.011223823796312</v>
+        <v>0.8923343746916184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026807895046377</v>
+        <v>1.02203421026036</v>
       </c>
       <c r="J21">
-        <v>1.022289779184572</v>
+        <v>0.9649798422404445</v>
       </c>
       <c r="K21">
-        <v>1.024979286611739</v>
+        <v>0.9830733014836498</v>
       </c>
       <c r="L21">
-        <v>1.023046303367031</v>
+        <v>0.959755363985167</v>
       </c>
       <c r="M21">
-        <v>1.014898677021519</v>
+        <v>0.9096893414066931</v>
       </c>
       <c r="N21">
-        <v>1.011306915551289</v>
+        <v>0.9910285272574113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014461085519589</v>
+        <v>0.9249067842552218</v>
       </c>
       <c r="D22">
-        <v>1.020548213266932</v>
+        <v>0.9620576601339269</v>
       </c>
       <c r="E22">
-        <v>1.018350745658479</v>
+        <v>0.9367540734296292</v>
       </c>
       <c r="F22">
-        <v>1.009664973223068</v>
+        <v>0.8818008839489567</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026549689781825</v>
+        <v>1.019623934203483</v>
       </c>
       <c r="J22">
-        <v>1.021456194982751</v>
+        <v>0.9593372732039133</v>
       </c>
       <c r="K22">
-        <v>1.024318055340386</v>
+        <v>0.9784201913615665</v>
       </c>
       <c r="L22">
-        <v>1.022129390001735</v>
+        <v>0.9536919448687657</v>
       </c>
       <c r="M22">
-        <v>1.01347882763332</v>
+        <v>0.9001438371562996</v>
       </c>
       <c r="N22">
-        <v>1.011020521700969</v>
+        <v>0.9890582209161831</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01504040314074</v>
+        <v>0.9288943814262445</v>
       </c>
       <c r="D23">
-        <v>1.020970227452236</v>
+        <v>0.9649426772534397</v>
       </c>
       <c r="E23">
-        <v>1.018908998441379</v>
+        <v>0.9404298546401947</v>
       </c>
       <c r="F23">
-        <v>1.010491782598886</v>
+        <v>0.8874490232882971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026686876692442</v>
+        <v>1.020916098519927</v>
       </c>
       <c r="J23">
-        <v>1.021898443076818</v>
+        <v>0.962359362925194</v>
       </c>
       <c r="K23">
-        <v>1.024668935431535</v>
+        <v>0.9809123725805037</v>
       </c>
       <c r="L23">
-        <v>1.022615791777561</v>
+        <v>0.9569388024672066</v>
       </c>
       <c r="M23">
-        <v>1.01423197414625</v>
+        <v>0.9052620326306066</v>
       </c>
       <c r="N23">
-        <v>1.011172493657097</v>
+        <v>0.9901134304666769</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017313932745712</v>
+        <v>0.9437640840102616</v>
       </c>
       <c r="D24">
-        <v>1.022625225856664</v>
+        <v>0.9757238213448082</v>
       </c>
       <c r="E24">
-        <v>1.021100603176889</v>
+        <v>0.9541596858219936</v>
       </c>
       <c r="F24">
-        <v>1.013737413163785</v>
+        <v>0.9083584941287354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027220175933844</v>
+        <v>1.025700278749069</v>
       </c>
       <c r="J24">
-        <v>1.023631855063169</v>
+        <v>0.9736130064522645</v>
       </c>
       <c r="K24">
-        <v>1.026042634097105</v>
+        <v>0.9901911016465132</v>
       </c>
       <c r="L24">
-        <v>1.024523495503113</v>
+        <v>0.9690426497797329</v>
       </c>
       <c r="M24">
-        <v>1.01718704753832</v>
+        <v>0.9242117696844917</v>
       </c>
       <c r="N24">
-        <v>1.01176750866449</v>
+        <v>0.9940437364840601</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019937889769201</v>
+        <v>0.9595883035066103</v>
       </c>
       <c r="D25">
-        <v>1.024532785436878</v>
+        <v>0.9872306032230973</v>
       </c>
       <c r="E25">
-        <v>1.023631522979788</v>
+        <v>0.968811004562124</v>
       </c>
       <c r="F25">
-        <v>1.017485262155884</v>
+        <v>0.9303866993765464</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027825120977646</v>
+        <v>1.030717441133179</v>
       </c>
       <c r="J25">
-        <v>1.025627911419862</v>
+        <v>0.9855566533872616</v>
       </c>
       <c r="K25">
-        <v>1.027621150544848</v>
+        <v>1.000030435697969</v>
       </c>
       <c r="L25">
-        <v>1.026722791892952</v>
+        <v>0.9819135876971405</v>
       </c>
       <c r="M25">
-        <v>1.020596484193257</v>
+        <v>0.9441712056901302</v>
       </c>
       <c r="N25">
-        <v>1.012451332055029</v>
+        <v>0.9982147009003233</v>
       </c>
     </row>
   </sheetData>
